--- a/app/config/tables/custom_members/forms/custom_members/custom_members.xlsx
+++ b/app/config/tables/custom_members/forms/custom_members/custom_members.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="1960" windowWidth="25420" windowHeight="14720" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="8680" yWindow="5960" windowWidth="29700" windowHeight="17020" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="135">
   <si>
     <t>clause</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>form_id</t>
-  </si>
-  <si>
-    <t>custom_individuals</t>
   </si>
   <si>
     <t>form_version</t>
@@ -996,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1325,7 +1322,7 @@
       <c r="H17"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -1481,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1508,13 +1505,13 @@
         <v>63</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="25">
         <v>20170530</v>
@@ -1523,25 +1520,25 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>25</v>
@@ -1576,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -1590,7 +1587,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2"/>
       <c r="D2" s="29"/>
@@ -1827,10 +1824,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>72</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>62</v>
@@ -1841,10 +1838,10 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1852,54 +1849,54 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1907,10 +1904,10 @@
         <v>48</v>
       </c>
       <c r="B10" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
         <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1918,10 +1915,10 @@
         <v>48</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1929,10 +1926,10 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1940,10 +1937,10 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1951,10 +1948,10 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1962,10 +1959,10 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1973,10 +1970,10 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1984,10 +1981,10 @@
         <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1995,10 +1992,10 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2006,10 +2003,10 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2027,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>6</v>
@@ -2041,7 +2038,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2062,13 +2059,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>100</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>2</v>
@@ -2079,36 +2076,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>103</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
       <c r="C3" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
         <v>105</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="33" t="s">
         <v>106</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2122,7 +2119,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2137,31 +2134,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>115</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -2169,28 +2166,28 @@
         <v>35</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>118</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>119</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2211,7 +2208,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>2</v>
@@ -2219,50 +2216,50 @@
     </row>
     <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -2297,27 +2294,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>129</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="240" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/custom_members/forms/custom_members/custom_members.xlsx
+++ b/app/config/tables/custom_members/forms/custom_members/custom_members.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="5960" windowWidth="29700" windowHeight="17020" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="133">
   <si>
     <t>clause</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>date_screened</t>
-  </si>
-  <si>
-    <t>now().getTime()</t>
   </si>
   <si>
     <t>note</t>
@@ -991,15 +985,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
     <col min="5" max="5" width="37.5" style="4" customWidth="1"/>
@@ -1066,49 +1061,54 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3"/>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B3"/>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="17"/>
       <c r="H4"/>
-      <c r="K4"/>
+      <c r="K4" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5"/>
@@ -1121,44 +1121,35 @@
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="17"/>
       <c r="H6"/>
-      <c r="K6" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7"/>
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B7"/>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C7"/>
+      <c r="D7"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G7"/>
       <c r="H7"/>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -1170,63 +1161,63 @@
       <c r="K8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9"/>
       <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="K9"/>
+      <c r="K9" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10"/>
-      <c r="H10"/>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
       <c r="K10" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11"/>
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B11"/>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11" s="14"/>
       <c r="G11"/>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="H11"/>
+      <c r="K11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -1238,40 +1229,47 @@
       <c r="K12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13"/>
       <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
       <c r="G13"/>
-      <c r="H13"/>
+      <c r="H13" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="K13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14"/>
-      <c r="H14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K14"/>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14"/>
+      <c r="K14" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>37</v>
@@ -1280,40 +1278,35 @@
         <v>38</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15"/>
+      <c r="G15"/>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K15" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16"/>
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B16"/>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
       <c r="F16" s="14"/>
       <c r="G16"/>
-      <c r="H16" s="1" t="s">
+      <c r="H16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1322,148 +1315,133 @@
       <c r="H17"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="C18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
       <c r="F18" s="14"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" ht="96" x14ac:dyDescent="0.3">
-      <c r="A19"/>
-      <c r="C19" s="19" t="s">
-        <v>16</v>
-      </c>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="E19"/>
       <c r="F19" s="14"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="K19"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20"/>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20" s="14"/>
+      <c r="F20"/>
       <c r="G20"/>
-      <c r="H20"/>
-      <c r="K20"/>
+      <c r="H20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21" s="1" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="H21"/>
+      <c r="K21"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="H22"/>
       <c r="K22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
+      <c r="A23"/>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H23"/>
       <c r="K23"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24"/>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-      <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="H24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="1" t="b">
+      <c r="K24" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="K25"/>
+    </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C27" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="1" t="b">
+      <c r="K26" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -1491,27 +1469,27 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="25">
         <v>20170530</v>
@@ -1520,28 +1498,28 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1552,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1573,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -1584,10 +1562,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2"/>
       <c r="D2" s="29"/>
@@ -1599,10 +1577,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="29"/>
@@ -1614,10 +1592,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="29"/>
@@ -1629,10 +1607,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5"/>
       <c r="D5" s="29"/>
@@ -1644,10 +1622,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6"/>
       <c r="D6" s="29"/>
@@ -1659,10 +1637,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="29"/>
@@ -1674,10 +1652,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="29"/>
@@ -1689,10 +1667,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="29"/>
@@ -1704,10 +1682,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="29"/>
@@ -1719,12 +1697,15 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -1734,42 +1715,38 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
-      <c r="H13" s="31"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -1780,10 +1757,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -1791,20 +1768,6 @@
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1824,189 +1787,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
         <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +1990,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>6</v>
@@ -2035,10 +1998,10 @@
     </row>
     <row r="2" spans="1:2" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2059,53 +2022,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>99</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="D2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2134,60 +2097,60 @@
   <sheetData>
     <row r="1" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="G1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>113</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="40" t="s">
+      <c r="G2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>119</v>
-      </c>
       <c r="I2" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2171,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>2</v>
@@ -2216,58 +2179,58 @@
     </row>
     <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2294,27 +2257,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="240" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
